--- a/PRDSTDTIME/final.xlsx
+++ b/PRDSTDTIME/final.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +534,4532 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6WG000000225</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CP_1031</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CP_800</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>IQC-01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45544.734830892</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6WG000000256</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WT_1031</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>S011</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>WT-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TAPPING</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3417777777777778</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.025333333333333</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45544.73483094126</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6WG000000256</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WT_1031</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S020</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>WT-01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TAPPING</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45544.73483098043</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MAN_A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S073A_RW</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1AP-06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PM保養</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8022067088487278</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.406620126546184</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45544.73483101958</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2RW000000390</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S074_RW</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7.323634154516507</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21.97090246354952</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45544.73483105824</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2RW000000261</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.991823257960645</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.97546977388193</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45544.73483109666</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2RW000000390</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.647282274733255</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25.94184682419977</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45544.73483113447</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>66.51416122004358</v>
+      </c>
+      <c r="H9" t="n">
+        <v>199.5424836601307</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45544.73483117283</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2RW000000424</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>45544.73483121127</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1RW000005026</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.758592760850361</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.27577828255108</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>45544.73483124901</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>WB_A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>OVEN-02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>OVEN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.458103265745584</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.37430979723675</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>45544.73483128765</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>66.51416122004358</v>
+      </c>
+      <c r="H13" t="n">
+        <v>199.5424836601307</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45544.73483132492</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2RW000000284</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.641079276055327</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.92323782816598</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>45544.73483136274</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2RW000000415</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>S081</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5.168661416569004</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15.50598424970701</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>45544.7348314011</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2RW000000261</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>S097</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.329105691056911</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.329105691056911</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>45544.73483143818</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WB_A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>S097</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>OVEN-02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>OVEN</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5095848161328591</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5095848161328591</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>45544.7348314755</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>S097</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>117.1488888888889</v>
+      </c>
+      <c r="H18" t="n">
+        <v>117.1488888888889</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>45544.73483151389</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2RW000000284</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>S097</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.057872340425532</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.057872340425532</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>45544.73483155205</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2RW000000415</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S097</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.940511182108626</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.940511182108626</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>45544.73483159005</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2RW000000261</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>45544.73483162874</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1WD000005001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PK_1031</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>S100_DS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>WCT-05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>RW_COUNTER</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>45544.73483166691</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2RW000000390</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>45544.73483170431</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>45544.73483174122</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2RW000000421</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>45544.73483177874</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2RW000000424</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>45544.73483181707</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1RW000005026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="n">
+        <v>45544.73483185392</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>WB_A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>OVEN-02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>OVEN</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>45544.73483189082</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>45544.73483192844</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2RW000000011</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>45544.73483196709</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2RW000000284</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="n">
+        <v>45544.7348320043</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2RW000000415</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>S100_RW</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>45544.73483204185</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2RW000000261</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8130081300813008</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8130081300813008</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>45544.73483207922</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2RW000000390</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3.703703703703704</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.703703703703704</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>45544.73483212103</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="H35" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>45544.7348321625</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1RW000005026</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5571030640668524</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5571030640668524</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>45544.73483220322</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>WB_A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OVEN-02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>OVEN</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1897983392645315</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1897983392645315</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>45544.73483224631</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="H38" t="n">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>45544.73483228787</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2RW000000284</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.127659574468085</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.127659574468085</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>45544.73483233026</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2RW000000415</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>S110_RW</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.277955271565495</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.277955271565495</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>45544.7348323726</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CP_A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>S072_RW</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>CRH3650-03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CP_TESTER</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0571091138150373</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3426546828902238</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>45544.73483265522</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MAN_A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1AP-06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>PM保養</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.1977066034005536</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.186239620403322</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>45544.73483269267</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2RW000000261</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8468834688346883</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5.08130081300813</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>45544.73483273134</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2RW000000415</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.331203407880724</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7.987220447284344</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>45544.73483276987</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2RW000000284</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2.216312056737589</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13.29787234042553</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>45544.7348328079</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="H46" t="n">
+        <v>555.5555555555555</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>45544.73483284594</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2RW000000261</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1.908329569406806</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.724988708220417</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>45544.73483288331</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2RW000000415</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2.586646550704059</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.759939652112177</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>45544.73483292089</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2RW000000284</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>3.826290386130812</v>
+      </c>
+      <c r="H49" t="n">
+        <v>11.47887115839244</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>45544.734832958</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>130.4032921810699</v>
+      </c>
+      <c r="H50" t="n">
+        <v>391.2098765432098</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>45544.73483299497</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2RW000000261</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>S099</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8468834688346883</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5.08130081300813</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>45544.73483303251</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2RW000000415</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>S099</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1.331203407880724</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7.987220447284344</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>45544.73483306968</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2RW000000284</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>S099</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2.216312056737589</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13.29787234042553</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>45544.73483310774</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>WC_1031</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>S099</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RC-01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>WAFER_CLEAN</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="H54" t="n">
+        <v>555.5555555555555</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>45544.73483314557</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MAN_A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1AP-06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>PM保養</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9991213039848871</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.997363911954661</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>45544.73483318376</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2RW000000005</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MAN_A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>S099</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1AP-06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>PM保養</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.1977066034005536</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.186239620403322</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>45544.73483322035</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1RW000005026</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.5803156917363045</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.481894150417827</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>45544.73483325826</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1RW000005026</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1.53498658825957</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.604959764778709</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>45544.73483330288</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2RW000000424</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>S093B</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9337353845327755</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.801206153598327</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>45544.73483334055</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="H60" t="n">
+        <v>555.5555555555555</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M60" s="2" t="n">
+        <v>45544.7348333787</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2RW000000390</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>S090</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>3.858024691358024</v>
+      </c>
+      <c r="H61" t="n">
+        <v>23.14814814814815</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M61" s="2" t="n">
+        <v>45544.73483341657</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6RW000000001</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SA_1031</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>AVI-01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>AVI</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>130.4032921810699</v>
+      </c>
+      <c r="H62" t="n">
+        <v>391.2098765432098</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M62" s="2" t="n">
+        <v>45544.7348334542</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2RW000000390</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PP_1031</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>S093_RW</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RDT-04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SORTER</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>6.125600137174211</v>
+      </c>
+      <c r="H63" t="n">
+        <v>18.37680041152263</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="M63" s="2" t="n">
+        <v>45544.73483349149</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
